--- a/biology/Zoologie/Cyrtodactylus_marmoratus/Cyrtodactylus_marmoratus.xlsx
+++ b/biology/Zoologie/Cyrtodactylus_marmoratus/Cyrtodactylus_marmoratus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cyrtodactylus marmoratus est une espèce de geckos de la famille des Gekkonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cyrtodactylus marmoratus est une espèce de geckos de la famille des Gekkonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Malaisie, en Indonésie et en Papouasie-Nouvelle-Guinée[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Malaisie, en Indonésie et en Papouasie-Nouvelle-Guinée.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Gray, 1831 "1830" : A synopsis of the species of Class Reptilia. The animal kingdom arranged in conformity with its organisation by the Baron Cuvier with additional descriptions of all the species hither named, and of many before noticed, V Whittaker, Treacher and Co., London, vol. 9, Supplement, p. 1-110 (texte intégral).</t>
         </is>
